--- a/RiskFactors1July.xlsx
+++ b/RiskFactors1July.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48322b5fca08d482/GitHub/RiskFactorsLRGV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="830" documentId="8_{BF53BB47-CAD3-5447-80B1-DB3EADC3B8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6568BDEF-6ECC-AA48-B447-BD474A6BCF68}"/>
+  <xr:revisionPtr revIDLastSave="925" documentId="8_{BF53BB47-CAD3-5447-80B1-DB3EADC3B8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F554CFC-F433-664E-953C-07EF0994B257}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="5" xr2:uid="{1AFF54DA-C0AD-1B48-BACA-D3A2AFC69637}"/>
+    <workbookView xWindow="13780" yWindow="460" windowWidth="25220" windowHeight="19660" activeTab="5" xr2:uid="{1AFF54DA-C0AD-1B48-BACA-D3A2AFC69637}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Int" sheetId="4" r:id="rId4"/>
     <sheet name="Pre" sheetId="5" r:id="rId5"/>
     <sheet name="2018Pre" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2018Pre'!$A$1:$BO$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2018Pre'!$A$1:$BO$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Surveys!$A$1:$BE$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="248">
   <si>
     <t>City</t>
   </si>
@@ -1783,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BB7169-615A-3846-80CA-341EC6AF934D}">
   <dimension ref="A1:BS40"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
+    <sheetView topLeftCell="BA1" workbookViewId="0">
       <selection activeCell="BJ21" sqref="BJ21"/>
     </sheetView>
   </sheetViews>
@@ -10405,7 +10406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124BB8F4-1261-F742-98FB-DC6A222E233E}">
   <dimension ref="A1:BC40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AR1" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -17093,7 +17094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4796B10F-A085-C342-81CF-9E107E9ADFB6}">
   <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
+    <sheetView topLeftCell="BA1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -33452,10 +33453,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F61359-DFAC-3947-A0D1-8BCB87E53ABD}">
-  <dimension ref="A1:BO40"/>
+  <dimension ref="A1:BO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BI37" sqref="BI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33836,6 +33837,6518 @@
         <v>2</v>
       </c>
       <c r="BE2">
+        <v>17</v>
+      </c>
+      <c r="BF2" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>17</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>17</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>0.13262746</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>-1.17832589</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>-1.40394</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>0.52590400000000004</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>-0.93457263999999995</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>-2.0061800000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3">
+        <v>26.123740999999999</v>
+      </c>
+      <c r="F3">
+        <v>-98.048134000000005</v>
+      </c>
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA3">
+        <v>1184.79693</v>
+      </c>
+      <c r="AB3">
+        <v>140.17183</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>112</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO3">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE3">
+        <v>12</v>
+      </c>
+      <c r="BF3" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>12</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>10</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>0.99777908999999998</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>0.33255143999999998</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>0.29256049000000001</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>-0.72733281999999999</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>-0.15584782999999999</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>-0.37084797000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4">
+        <v>26.124227999999999</v>
+      </c>
+      <c r="F4">
+        <v>-98.047630999999996</v>
+      </c>
+      <c r="G4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" t="s">
+        <v>156</v>
+      </c>
+      <c r="S4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA4">
+        <v>466.12599999999998</v>
+      </c>
+      <c r="AB4">
+        <v>118.93353</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>16</v>
+      </c>
+      <c r="AG4">
+        <v>106</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO4">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>16</v>
+      </c>
+      <c r="BF4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH4">
+        <v>16</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>6</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>0.42944655999999998</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>-1.40222446</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>1.0365436800000001</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>0.64166889999999999</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>0.56747219000000004</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>-1.7385179399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5">
+        <v>26.12393333</v>
+      </c>
+      <c r="F5">
+        <v>-98.048755560000004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S5" t="s">
+        <v>171</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA5">
+        <v>655.56817000000001</v>
+      </c>
+      <c r="AB5">
+        <v>116.06753</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>62</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO5">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>12</v>
+      </c>
+      <c r="BF5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>12</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>13</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>0.39847705999999999</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>-1.0243708300000001</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>0.98958899</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>0.21456684000000001</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>1.2443040599999999</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>-0.94464815999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6">
+        <v>26.15963</v>
+      </c>
+      <c r="F6">
+        <v>-97.828509999999994</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>165</v>
+      </c>
+      <c r="R6" t="s">
+        <v>156</v>
+      </c>
+      <c r="S6" t="s">
+        <v>171</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA6">
+        <v>641.94898999999998</v>
+      </c>
+      <c r="AB6">
+        <v>107.94195000000001</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO6">
+        <v>8</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>7</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>7</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>3</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE6">
+        <v>11</v>
+      </c>
+      <c r="BF6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>11</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>84</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>0.62854964000000002</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>-0.95142104999999999</v>
+      </c>
+      <c r="BL6" s="2">
+        <v>0.64800163</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>-0.57178971999999995</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>-2.1983621900000001</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>-4.3361339999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7">
+        <v>26.158846</v>
+      </c>
+      <c r="F7">
+        <v>-97.830174999999997</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" t="s">
+        <v>167</v>
+      </c>
+      <c r="O7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>163</v>
+      </c>
+      <c r="R7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S7" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA7">
+        <v>292.63607999999999</v>
+      </c>
+      <c r="AB7">
+        <v>72.523349999999994</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>38</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO7">
+        <v>6</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>3</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>4</v>
+      </c>
+      <c r="BF7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>4</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>22</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>-0.25800457999999998</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>-2.0627836300000002</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>-1.4583751199999999</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>-1.21541503</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>0.51067969000000002</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>0.37032832999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8">
+        <v>26.158829999999998</v>
+      </c>
+      <c r="F8">
+        <v>-97.831137999999996</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>165</v>
+      </c>
+      <c r="R8" t="s">
+        <v>156</v>
+      </c>
+      <c r="S8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA8">
+        <v>556.35033999999996</v>
+      </c>
+      <c r="AB8">
+        <v>94.466819999999998</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>8</v>
+      </c>
+      <c r="AG8">
+        <v>24</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO8">
+        <v>13</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>3</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE8">
+        <v>6</v>
+      </c>
+      <c r="BF8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH8">
+        <v>6</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>22</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>0.71439659</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>0.19763639</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>0.76216101000000003</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>3.0998773000000002</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>-2.0828655700000001</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>0.60784453999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9">
+        <v>26.183688889999999</v>
+      </c>
+      <c r="F9">
+        <v>-97.948427780000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" t="s">
+        <v>157</v>
+      </c>
+      <c r="S9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA9">
+        <v>614.57199000000003</v>
+      </c>
+      <c r="AB9">
+        <v>100.22129</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO9">
+        <v>10</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>14</v>
+      </c>
+      <c r="BF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>14</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>19</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>-1.59018803</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>0.39509018000000001</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>1.04064215</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>-0.80999491999999995</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>1.04334243</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>-1.2791045999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10">
+        <v>26.184088890000002</v>
+      </c>
+      <c r="F10">
+        <v>-97.948436110000003</v>
+      </c>
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R10" t="s">
+        <v>156</v>
+      </c>
+      <c r="S10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA10">
+        <v>633.21321</v>
+      </c>
+      <c r="AB10">
+        <v>101.67782</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+      <c r="AF10">
+        <v>4</v>
+      </c>
+      <c r="AG10">
+        <v>218</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO10">
+        <v>14</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE10">
+        <v>4</v>
+      </c>
+      <c r="BF10" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>4</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>11</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>0.61865718000000003</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>-0.97381925000000003</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>0.68814633000000003</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>-0.57318877000000001</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>-0.83644251000000003</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>0.55577107999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11">
+        <v>26.184297999999998</v>
+      </c>
+      <c r="F11">
+        <v>-97.947978000000006</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" t="s">
+        <v>156</v>
+      </c>
+      <c r="S11" t="s">
+        <v>171</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA11">
+        <v>605.44605999999999</v>
+      </c>
+      <c r="AB11">
+        <v>99.784040000000005</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE11">
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>22</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO11">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>8</v>
+      </c>
+      <c r="BF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>8</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>55</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>6.8214520000000001E-2</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>-0.99112146000000001</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>-4.1971894299999999</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>-0.74998228</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>-0.70227622000000001</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>-1.7995113199999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12">
+        <v>26.18369444</v>
+      </c>
+      <c r="F12">
+        <v>-97.947980560000005</v>
+      </c>
+      <c r="G12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" t="s">
+        <v>163</v>
+      </c>
+      <c r="P12" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R12" t="s">
+        <v>157</v>
+      </c>
+      <c r="S12" t="s">
+        <v>171</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA12">
+        <v>536.82480999999996</v>
+      </c>
+      <c r="AB12">
+        <v>95.475120000000004</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
+      </c>
+      <c r="AG12">
+        <v>19</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO12">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>12</v>
+      </c>
+      <c r="BF12" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH12">
+        <v>12</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>22</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>-3.7824300399999999</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>-0.16136018999999999</v>
+      </c>
+      <c r="BL12" s="2">
+        <v>-0.49919625000000001</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>4.8762796799999997</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>2.4442741099999998</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>-1.0235234900000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13">
+        <v>26.182488889999998</v>
+      </c>
+      <c r="F13">
+        <v>-97.947961109999994</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>163</v>
+      </c>
+      <c r="R13" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" t="s">
+        <v>171</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA13">
+        <v>612.92510000000004</v>
+      </c>
+      <c r="AB13">
+        <v>100.48014999999999</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>124</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO13">
+        <v>12</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>8</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>5</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE13">
+        <v>8</v>
+      </c>
+      <c r="BF13" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>19</v>
+      </c>
+      <c r="BH13">
+        <v>8</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>67</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>-0.68757548000000002</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>-0.3397984</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>0.34211530000000001</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>2.2903090599999998</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>-1.8328452200000001</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>5.6061300000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14">
+        <v>26.220680560000002</v>
+      </c>
+      <c r="F14">
+        <v>-98.205811109999999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>163</v>
+      </c>
+      <c r="R14" t="s">
+        <v>156</v>
+      </c>
+      <c r="S14" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA14">
+        <v>1001.64232</v>
+      </c>
+      <c r="AB14">
+        <v>138.93379999999999</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE14">
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO14">
+        <v>13</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>13</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE14">
+        <v>11</v>
+      </c>
+      <c r="BF14" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="2">
+        <v>7</v>
+      </c>
+      <c r="BH14">
+        <v>11</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>7</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>-0.19160645000000001</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>-0.56852528999999996</v>
+      </c>
+      <c r="BL14" s="2">
+        <v>2.0403675300000002</v>
+      </c>
+      <c r="BM14" s="2">
+        <v>-0.53371398999999997</v>
+      </c>
+      <c r="BN14" s="2">
+        <v>-2.3676189000000001</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>1.0088817699999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15">
+        <v>26.221184000000001</v>
+      </c>
+      <c r="F15">
+        <v>-98.205916000000002</v>
+      </c>
+      <c r="G15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>163</v>
+      </c>
+      <c r="P15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>167</v>
+      </c>
+      <c r="R15" t="s">
+        <v>156</v>
+      </c>
+      <c r="S15" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA15">
+        <v>615.16399999999999</v>
+      </c>
+      <c r="AB15">
+        <v>103.49978</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>6</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO15">
+        <v>8</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>7</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>3</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE15">
+        <v>13</v>
+      </c>
+      <c r="BF15" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>13</v>
+      </c>
+      <c r="BI15" s="2">
+        <v>40</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>-1.1968497499999999</v>
+      </c>
+      <c r="BK15" s="2">
+        <v>-3.66415E-2</v>
+      </c>
+      <c r="BL15" s="2">
+        <v>0.20864300999999999</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>-1.0200767100000001</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>-2.3676189000000001</v>
+      </c>
+      <c r="BO15" s="2">
+        <v>1.0088817699999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16">
+        <v>26.230515</v>
+      </c>
+      <c r="F16">
+        <v>-97.959181999999998</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>165</v>
+      </c>
+      <c r="R16" t="s">
+        <v>156</v>
+      </c>
+      <c r="S16" t="s">
+        <v>171</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA16">
+        <v>602.92749000000003</v>
+      </c>
+      <c r="AB16">
+        <v>111.87022</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO16">
+        <v>10</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>2</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>17</v>
+      </c>
+      <c r="BF16" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>3</v>
+      </c>
+      <c r="BH16">
+        <v>17</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>301</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>0.58436144000000001</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>-1.05147068</v>
+      </c>
+      <c r="BL16" s="2">
+        <v>-0.56367508</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>-0.44566799000000001</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>2.7754804499999999</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>-1.3977588400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17">
+        <v>26.231024999999999</v>
+      </c>
+      <c r="F17">
+        <v>-97.958458329999999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>166</v>
+      </c>
+      <c r="R17" t="s">
+        <v>157</v>
+      </c>
+      <c r="S17" t="s">
+        <v>171</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA17">
+        <v>711.40009999999995</v>
+      </c>
+      <c r="AB17">
+        <v>117.35637</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE17">
+        <v>5</v>
+      </c>
+      <c r="AF17">
+        <v>22</v>
+      </c>
+      <c r="AG17">
+        <v>263</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO17">
+        <v>9</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>6</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>13</v>
+      </c>
+      <c r="BF17" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>7</v>
+      </c>
+      <c r="BH17">
+        <v>13</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>62</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>0.15349086000000001</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>0.27157154</v>
+      </c>
+      <c r="BL17" s="2">
+        <v>-0.33018096000000002</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>1.75553812</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>1.3272802500000001</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>-1.42662047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18">
+        <v>26.230541670000001</v>
+      </c>
+      <c r="F18">
+        <v>-97.956483329999998</v>
+      </c>
+      <c r="G18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>165</v>
+      </c>
+      <c r="R18" t="s">
+        <v>156</v>
+      </c>
+      <c r="S18" t="s">
+        <v>171</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA18">
+        <v>1204.70685</v>
+      </c>
+      <c r="AB18">
+        <v>139.88441</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
+      <c r="AF18">
+        <v>30</v>
+      </c>
+      <c r="AG18">
+        <v>52</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO18">
+        <v>11</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>2</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE18">
+        <v>13</v>
+      </c>
+      <c r="BF18" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>13</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>84</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>1.39977116</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>2.6427811299999999</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>-4.4788380000000003E-2</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>-1.2410736</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>0.11337762</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>-0.24136882000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19">
+        <v>26.230611110000002</v>
+      </c>
+      <c r="F19">
+        <v>-97.957250000000002</v>
+      </c>
+      <c r="G19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>165</v>
+      </c>
+      <c r="R19" t="s">
+        <v>157</v>
+      </c>
+      <c r="S19" t="s">
+        <v>171</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA19">
+        <v>673.41769999999997</v>
+      </c>
+      <c r="AB19">
+        <v>116.94615</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>14</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO19">
+        <v>8</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>12</v>
+      </c>
+      <c r="BF19" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>3</v>
+      </c>
+      <c r="BH19">
+        <v>12</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>126</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>-1.8109418399999999</v>
+      </c>
+      <c r="BK19" s="2">
+        <v>1.1856056500000001</v>
+      </c>
+      <c r="BL19" s="2">
+        <v>-1.4141180600000001</v>
+      </c>
+      <c r="BM19" s="2">
+        <v>-0.26011306000000001</v>
+      </c>
+      <c r="BN19" s="2">
+        <v>2.1060050499999998</v>
+      </c>
+      <c r="BO19" s="2">
+        <v>-1.7774066500000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20">
+        <v>26.23101389</v>
+      </c>
+      <c r="F20">
+        <v>-97.957541669999998</v>
+      </c>
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>163</v>
+      </c>
+      <c r="P20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>166</v>
+      </c>
+      <c r="R20" t="s">
+        <v>157</v>
+      </c>
+      <c r="S20" t="s">
+        <v>172</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA20">
+        <v>1143.1348800000001</v>
+      </c>
+      <c r="AB20">
+        <v>137.52472</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE20">
+        <v>5</v>
+      </c>
+      <c r="AF20">
+        <v>9</v>
+      </c>
+      <c r="AG20">
+        <v>52</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO20">
+        <v>14</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>2</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE20">
+        <v>13</v>
+      </c>
+      <c r="BF20" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH20">
+        <v>13</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>36</v>
+      </c>
+      <c r="BJ20" s="2">
+        <v>-2.12079299</v>
+      </c>
+      <c r="BK20" s="2">
+        <v>1.85994825</v>
+      </c>
+      <c r="BL20" s="2">
+        <v>-0.84338376999999998</v>
+      </c>
+      <c r="BM20" s="2">
+        <v>2.5357269599999999</v>
+      </c>
+      <c r="BN20" s="2">
+        <v>-1.8505691500000001</v>
+      </c>
+      <c r="BO20" s="2">
+        <v>-1.1716049799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21">
+        <v>26.133500000000002</v>
+      </c>
+      <c r="F21">
+        <v>-97.904422220000001</v>
+      </c>
+      <c r="G21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R21" t="s">
+        <v>156</v>
+      </c>
+      <c r="S21" t="s">
+        <v>171</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA21">
+        <v>1130.21352</v>
+      </c>
+      <c r="AB21">
+        <v>134.49804</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE21">
+        <v>2</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>110</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO21">
+        <v>12</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>8</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>3</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>13</v>
+      </c>
+      <c r="BF21" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>13</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>13</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>1.42695854</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>0.40833933</v>
+      </c>
+      <c r="BL21" s="2">
+        <v>0.16165172999999999</v>
+      </c>
+      <c r="BM21" s="2">
+        <v>-0.21920065999999999</v>
+      </c>
+      <c r="BN21" s="2">
+        <v>3.1541409999999999E-2</v>
+      </c>
+      <c r="BO21" s="2">
+        <v>2.1749810000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22">
+        <v>26.134347219999999</v>
+      </c>
+      <c r="F22">
+        <v>-97.903497220000006</v>
+      </c>
+      <c r="G22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" t="s">
+        <v>157</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>165</v>
+      </c>
+      <c r="R22" t="s">
+        <v>156</v>
+      </c>
+      <c r="S22" t="s">
+        <v>171</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA22">
+        <v>1089.48713</v>
+      </c>
+      <c r="AB22">
+        <v>132.04758000000001</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>46</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO22">
+        <v>10</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>9</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>9</v>
+      </c>
+      <c r="BF22" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>9</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>15</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>0.64435463999999998</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>-1.9688069999999998E-2</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>0.82407343</v>
+      </c>
+      <c r="BM22" s="2">
+        <v>0.18867233</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>-0.53510248000000005</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>-0.59927443999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23">
+        <v>26.134723999999999</v>
+      </c>
+      <c r="F23">
+        <v>-97.903417000000005</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>165</v>
+      </c>
+      <c r="R23" t="s">
+        <v>157</v>
+      </c>
+      <c r="S23" t="s">
+        <v>171</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA23">
+        <v>1075.76341</v>
+      </c>
+      <c r="AB23">
+        <v>131.32231999999999</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>10</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO23">
+        <v>10</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>8</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>7</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>18</v>
+      </c>
+      <c r="BF23" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>18</v>
+      </c>
+      <c r="BI23" s="2">
+        <v>11</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>-0.26873123999999998</v>
+      </c>
+      <c r="BK23" s="2">
+        <v>0.64051354000000005</v>
+      </c>
+      <c r="BL23" s="2">
+        <v>1.32451293</v>
+      </c>
+      <c r="BM23" s="2">
+        <v>-1.9704817800000001</v>
+      </c>
+      <c r="BN23" s="2">
+        <v>3.5184431200000001</v>
+      </c>
+      <c r="BO23" s="2">
+        <v>4.5498218000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24">
+        <v>26.112397219999998</v>
+      </c>
+      <c r="F24">
+        <v>-97.950597220000006</v>
+      </c>
+      <c r="G24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" t="s">
+        <v>156</v>
+      </c>
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>165</v>
+      </c>
+      <c r="R24" t="s">
+        <v>157</v>
+      </c>
+      <c r="S24" t="s">
+        <v>171</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA24">
+        <v>778.88598999999999</v>
+      </c>
+      <c r="AB24">
+        <v>125.81722000000001</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
+      <c r="AF24">
+        <v>20</v>
+      </c>
+      <c r="AG24">
+        <v>180</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO24">
+        <v>13</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>6</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>6</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>16</v>
+      </c>
+      <c r="BF24" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH24">
+        <v>16</v>
+      </c>
+      <c r="BI24" s="2">
+        <v>38</v>
+      </c>
+      <c r="BJ24" s="2">
+        <v>-0.18357514</v>
+      </c>
+      <c r="BK24" s="2">
+        <v>1.3910064600000001</v>
+      </c>
+      <c r="BL24" s="2">
+        <v>-0.81453763999999995</v>
+      </c>
+      <c r="BM24" s="2">
+        <v>0.71888401000000002</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>0.59582396000000004</v>
+      </c>
+      <c r="BO24" s="2">
+        <v>-1.3025537700000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25">
+        <v>26.111916000000001</v>
+      </c>
+      <c r="F25">
+        <v>-97.948863000000003</v>
+      </c>
+      <c r="G25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O25" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>163</v>
+      </c>
+      <c r="R25" t="s">
+        <v>156</v>
+      </c>
+      <c r="S25" t="s">
+        <v>171</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA25">
+        <v>794.96876999999995</v>
+      </c>
+      <c r="AB25">
+        <v>126.21485</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE25">
+        <v>3</v>
+      </c>
+      <c r="AF25">
+        <v>8</v>
+      </c>
+      <c r="AG25">
+        <v>2</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO25">
+        <v>8</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>5</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>3</v>
+      </c>
+      <c r="AX25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AZ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE25">
+        <v>14</v>
+      </c>
+      <c r="BF25" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>14</v>
+      </c>
+      <c r="BI25" s="2">
+        <v>29</v>
+      </c>
+      <c r="BJ25" s="2">
+        <v>0.55633518999999998</v>
+      </c>
+      <c r="BK25" s="2">
+        <v>-0.66695302999999995</v>
+      </c>
+      <c r="BL25" s="2">
+        <v>-8.6904259999999997E-2</v>
+      </c>
+      <c r="BM25" s="2">
+        <v>-1.2169265899999999</v>
+      </c>
+      <c r="BN25" s="2">
+        <v>0.63353278000000002</v>
+      </c>
+      <c r="BO25" s="2">
+        <v>1.4357561999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26">
+        <v>26.110990000000001</v>
+      </c>
+      <c r="F26">
+        <v>-97.950554999999994</v>
+      </c>
+      <c r="G26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" t="s">
+        <v>162</v>
+      </c>
+      <c r="M26" t="s">
+        <v>157</v>
+      </c>
+      <c r="N26" t="s">
+        <v>163</v>
+      </c>
+      <c r="O26" t="s">
+        <v>163</v>
+      </c>
+      <c r="P26" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>165</v>
+      </c>
+      <c r="R26" t="s">
+        <v>156</v>
+      </c>
+      <c r="S26" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA26">
+        <v>763.03520000000003</v>
+      </c>
+      <c r="AB26">
+        <v>123.95587999999999</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>20</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO26">
+        <v>8</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>5</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="2">
+        <v>9</v>
+      </c>
+      <c r="BF26" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="2">
+        <v>9</v>
+      </c>
+      <c r="BI26" s="2">
+        <v>30</v>
+      </c>
+      <c r="BJ26" s="2">
+        <v>-0.12492195</v>
+      </c>
+      <c r="BK26" s="2">
+        <v>-0.38817141999999999</v>
+      </c>
+      <c r="BL26" s="2">
+        <v>-0.45376746000000001</v>
+      </c>
+      <c r="BM26" s="2">
+        <v>0.25204135</v>
+      </c>
+      <c r="BN26" s="2">
+        <v>-1.3421790600000001</v>
+      </c>
+      <c r="BO26" s="2">
+        <v>-0.68445243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27">
+        <v>26.111488000000001</v>
+      </c>
+      <c r="F27">
+        <v>-97.950439000000003</v>
+      </c>
+      <c r="G27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" t="s">
+        <v>157</v>
+      </c>
+      <c r="N27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O27" t="s">
+        <v>163</v>
+      </c>
+      <c r="P27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>163</v>
+      </c>
+      <c r="R27" t="s">
+        <v>157</v>
+      </c>
+      <c r="S27" t="s">
+        <v>171</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA27">
+        <v>723.71308999999997</v>
+      </c>
+      <c r="AB27">
+        <v>121.49112</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE27">
+        <v>4</v>
+      </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <v>190</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO27">
+        <v>10</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="2">
+        <v>8</v>
+      </c>
+      <c r="BF27" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="2">
+        <v>8</v>
+      </c>
+      <c r="BI27" s="2">
+        <v>32</v>
+      </c>
+      <c r="BJ27" s="2">
+        <v>-2.0420432499999999</v>
+      </c>
+      <c r="BK27" s="2">
+        <v>-0.26035575999999999</v>
+      </c>
+      <c r="BL27" s="2">
+        <v>-1.34581175</v>
+      </c>
+      <c r="BM27" s="2">
+        <v>-0.35298138000000001</v>
+      </c>
+      <c r="BN27" s="2">
+        <v>-0.30280605999999999</v>
+      </c>
+      <c r="BO27" s="2">
+        <v>-2.3787239599999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28">
+        <v>26.111021999999998</v>
+      </c>
+      <c r="F28">
+        <v>-97.948425999999998</v>
+      </c>
+      <c r="G28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L28" t="s">
+        <v>162</v>
+      </c>
+      <c r="M28" t="s">
+        <v>157</v>
+      </c>
+      <c r="N28" t="s">
+        <v>164</v>
+      </c>
+      <c r="O28" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>163</v>
+      </c>
+      <c r="R28" t="s">
+        <v>156</v>
+      </c>
+      <c r="S28" t="s">
+        <v>171</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA28">
+        <v>817.88379999999995</v>
+      </c>
+      <c r="AB28">
+        <v>128.09448</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE28">
+        <v>2</v>
+      </c>
+      <c r="AF28">
+        <v>22</v>
+      </c>
+      <c r="AG28">
+        <v>122</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO28">
+        <v>10</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>5</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>2</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="2">
+        <v>10</v>
+      </c>
+      <c r="BF28" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="2">
+        <v>3</v>
+      </c>
+      <c r="BH28" s="2">
+        <v>10</v>
+      </c>
+      <c r="BI28" s="2">
+        <v>55</v>
+      </c>
+      <c r="BJ28" s="2">
+        <v>0.82777933999999997</v>
+      </c>
+      <c r="BK28" s="2">
+        <v>-0.50033094</v>
+      </c>
+      <c r="BL28" s="2">
+        <v>-1.5282326100000001</v>
+      </c>
+      <c r="BM28" s="2">
+        <v>-0.43137830999999999</v>
+      </c>
+      <c r="BN28" s="2">
+        <v>0.19557400999999999</v>
+      </c>
+      <c r="BO28" s="2">
+        <v>-1.55272243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29">
+        <v>26.141983329999999</v>
+      </c>
+      <c r="F29">
+        <v>-97.978774999999999</v>
+      </c>
+      <c r="G29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" t="s">
+        <v>161</v>
+      </c>
+      <c r="M29" t="s">
+        <v>157</v>
+      </c>
+      <c r="N29" t="s">
+        <v>163</v>
+      </c>
+      <c r="O29" t="s">
+        <v>163</v>
+      </c>
+      <c r="P29" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>167</v>
+      </c>
+      <c r="R29" t="s">
+        <v>157</v>
+      </c>
+      <c r="S29" t="s">
+        <v>171</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA29">
+        <v>936.63156000000004</v>
+      </c>
+      <c r="AB29">
+        <v>127.24386</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO29">
+        <v>13</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>12</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>3</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE29" s="2">
+        <v>13</v>
+      </c>
+      <c r="BF29" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="2">
+        <v>5</v>
+      </c>
+      <c r="BH29" s="2">
+        <v>13</v>
+      </c>
+      <c r="BI29" s="2">
+        <v>165</v>
+      </c>
+      <c r="BJ29" s="2">
+        <v>1.4044116200000001</v>
+      </c>
+      <c r="BK29" s="2">
+        <v>0.80265491</v>
+      </c>
+      <c r="BL29" s="2">
+        <v>1.8748519699999999</v>
+      </c>
+      <c r="BM29" s="2">
+        <v>-0.55960849999999995</v>
+      </c>
+      <c r="BN29" s="2">
+        <v>0.70179659999999999</v>
+      </c>
+      <c r="BO29" s="2">
+        <v>1.2307789099999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30">
+        <v>26.142074000000001</v>
+      </c>
+      <c r="F30">
+        <v>-97.977722</v>
+      </c>
+      <c r="G30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" t="s">
+        <v>156</v>
+      </c>
+      <c r="L30" t="s">
+        <v>161</v>
+      </c>
+      <c r="M30" t="s">
+        <v>157</v>
+      </c>
+      <c r="N30" t="s">
+        <v>163</v>
+      </c>
+      <c r="O30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>163</v>
+      </c>
+      <c r="R30" t="s">
+        <v>156</v>
+      </c>
+      <c r="S30" t="s">
+        <v>171</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA30">
+        <v>1082.02503</v>
+      </c>
+      <c r="AB30">
+        <v>144.83927</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>6</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO30">
+        <v>8</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>6</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>2</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE30" s="2">
+        <v>14</v>
+      </c>
+      <c r="BF30" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>9</v>
+      </c>
+      <c r="BH30" s="2">
+        <v>14</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>156</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>-0.82227865</v>
+      </c>
+      <c r="BK30" s="2">
+        <v>1.73676802</v>
+      </c>
+      <c r="BL30" s="2">
+        <v>0.13675741999999999</v>
+      </c>
+      <c r="BM30" s="2">
+        <v>-0.98411375999999995</v>
+      </c>
+      <c r="BN30" s="2">
+        <v>-0.66534718999999998</v>
+      </c>
+      <c r="BO30" s="2">
+        <v>0.10941736000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31">
+        <v>26.143249999999998</v>
+      </c>
+      <c r="F31">
+        <v>-97.979652779999995</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" t="s">
+        <v>163</v>
+      </c>
+      <c r="P31" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>163</v>
+      </c>
+      <c r="R31" t="s">
+        <v>156</v>
+      </c>
+      <c r="S31" t="s">
+        <v>171</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA31">
+        <v>722.37662</v>
+      </c>
+      <c r="AB31">
+        <v>111.7424</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>6</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO31">
+        <v>9</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD31" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE31" s="2">
+        <v>15</v>
+      </c>
+      <c r="BF31" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="2">
+        <v>15</v>
+      </c>
+      <c r="BI31" s="2">
+        <v>221</v>
+      </c>
+      <c r="BJ31" s="2">
+        <v>0.47413137999999999</v>
+      </c>
+      <c r="BK31" s="2">
+        <v>-0.85307652</v>
+      </c>
+      <c r="BL31" s="2">
+        <v>-0.78223966</v>
+      </c>
+      <c r="BM31" s="2">
+        <v>-1.13513916</v>
+      </c>
+      <c r="BN31" s="2">
+        <v>-1.5678988</v>
+      </c>
+      <c r="BO31" s="2">
+        <v>0.67983777999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32">
+        <v>26.14204234</v>
+      </c>
+      <c r="F32">
+        <v>-97.97826148</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" t="s">
+        <v>156</v>
+      </c>
+      <c r="L32" t="s">
+        <v>161</v>
+      </c>
+      <c r="M32" t="s">
+        <v>157</v>
+      </c>
+      <c r="N32" t="s">
+        <v>164</v>
+      </c>
+      <c r="O32" t="s">
+        <v>163</v>
+      </c>
+      <c r="P32" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>167</v>
+      </c>
+      <c r="R32" t="s">
+        <v>156</v>
+      </c>
+      <c r="S32" t="s">
+        <v>171</v>
+      </c>
+      <c r="T32">
+        <v>7</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA32">
+        <v>1097.6753699999999</v>
+      </c>
+      <c r="AB32">
+        <v>133.45156</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>10</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO32">
+        <v>15</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>13</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>7</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>3</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC32" s="2">
+        <v>3</v>
+      </c>
+      <c r="BD32" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE32" s="2">
+        <v>4</v>
+      </c>
+      <c r="BF32" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH32" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI32" s="2">
+        <v>49</v>
+      </c>
+      <c r="BJ32" s="2">
+        <v>1.3901121299999999</v>
+      </c>
+      <c r="BK32" s="2">
+        <v>0.32491276000000002</v>
+      </c>
+      <c r="BL32" s="2">
+        <v>3.03122976</v>
+      </c>
+      <c r="BM32" s="2">
+        <v>3.1686480000000003E-2</v>
+      </c>
+      <c r="BN32" s="2">
+        <v>-1.24326914</v>
+      </c>
+      <c r="BO32" s="2">
+        <v>0.72076174000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:BO25" xr:uid="{7D8A8F01-F304-FF45-A3DA-4BECCC51A3F3}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF0E5C-921C-EB4F-B778-F5A9CD54BD2A}">
+  <dimension ref="A1:BO40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="BK1" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="BO1" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2">
+        <v>26.124397999999999</v>
+      </c>
+      <c r="F2">
+        <v>-98.048829999999995</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA2">
+        <v>637.59355000000005</v>
+      </c>
+      <c r="AB2">
+        <v>114.76963000000001</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>96</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO2">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE2">
         <v>27</v>
       </c>
       <c r="BF2" s="11">
@@ -41486,7 +47999,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BO40" xr:uid="{7D8A8F01-F304-FF45-A3DA-4BECCC51A3F3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RiskFactors1July.xlsx
+++ b/RiskFactors1July.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48322b5fca08d482/GitHub/RiskFactorsLRGV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="925" documentId="8_{BF53BB47-CAD3-5447-80B1-DB3EADC3B8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F554CFC-F433-664E-953C-07EF0994B257}"/>
+  <xr:revisionPtr revIDLastSave="1034" documentId="8_{BF53BB47-CAD3-5447-80B1-DB3EADC3B8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1ABACC30-B889-0B4B-9A1F-C720EF0CF747}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="460" windowWidth="25220" windowHeight="19660" activeTab="5" xr2:uid="{1AFF54DA-C0AD-1B48-BACA-D3A2AFC69637}"/>
   </bookViews>
@@ -25345,7 +25345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE5B4E5-3308-F04D-ADDE-6138069D962A}">
   <dimension ref="A1:BO40"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ12" workbookViewId="0">
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
       <selection activeCell="BT14" sqref="BT14"/>
     </sheetView>
   </sheetViews>
@@ -33455,8 +33455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F61359-DFAC-3947-A0D1-8BCB87E53ABD}">
   <dimension ref="A1:BO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BI37" sqref="BI37"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33708,16 +33708,16 @@
         <v>156</v>
       </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P2" t="s">
         <v>170</v>
       </c>
       <c r="Q2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="R2" t="s">
         <v>156</v>
@@ -33774,7 +33774,7 @@
         <v>198</v>
       </c>
       <c r="AJ2" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK2" t="s">
         <v>207</v>
@@ -33911,16 +33911,16 @@
         <v>156</v>
       </c>
       <c r="N3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="P3" t="s">
         <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="R3" t="s">
         <v>156</v>
@@ -33977,7 +33977,7 @@
         <v>199</v>
       </c>
       <c r="AJ3" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK3" t="s">
         <v>207</v>
@@ -34114,16 +34114,16 @@
         <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="P4" t="s">
         <v>169</v>
       </c>
       <c r="Q4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="R4" t="s">
         <v>156</v>
@@ -34180,7 +34180,7 @@
         <v>199</v>
       </c>
       <c r="AJ4" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK4" t="s">
         <v>207</v>
@@ -34317,16 +34317,16 @@
         <v>156</v>
       </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P5" t="s">
         <v>170</v>
       </c>
       <c r="Q5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="R5" t="s">
         <v>157</v>
@@ -34383,7 +34383,7 @@
         <v>198</v>
       </c>
       <c r="AJ5" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK5" t="s">
         <v>207</v>
@@ -34520,16 +34520,16 @@
         <v>157</v>
       </c>
       <c r="N6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P6" t="s">
         <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="R6" t="s">
         <v>156</v>
@@ -34586,7 +34586,7 @@
         <v>198</v>
       </c>
       <c r="AJ6" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK6" t="s">
         <v>207</v>
@@ -34723,16 +34723,16 @@
         <v>157</v>
       </c>
       <c r="N7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="P7" t="s">
         <v>170</v>
       </c>
       <c r="Q7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R7" t="s">
         <v>156</v>
@@ -34789,7 +34789,7 @@
         <v>199</v>
       </c>
       <c r="AJ7" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="AK7" t="s">
         <v>207</v>
@@ -34926,16 +34926,16 @@
         <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P8" t="s">
         <v>170</v>
       </c>
-      <c r="Q8" t="s">
-        <v>165</v>
+      <c r="Q8" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R8" t="s">
         <v>156</v>
@@ -34992,7 +34992,7 @@
         <v>198</v>
       </c>
       <c r="AJ8" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK8" t="s">
         <v>207</v>
@@ -35129,16 +35129,16 @@
         <v>157</v>
       </c>
       <c r="N9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P9" t="s">
         <v>170</v>
       </c>
-      <c r="Q9" t="s">
-        <v>166</v>
+      <c r="Q9" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R9" t="s">
         <v>157</v>
@@ -35195,7 +35195,7 @@
         <v>197</v>
       </c>
       <c r="AJ9" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK9" t="s">
         <v>206</v>
@@ -35332,16 +35332,16 @@
         <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P10" t="s">
         <v>169</v>
       </c>
       <c r="Q10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R10" t="s">
         <v>156</v>
@@ -35398,7 +35398,7 @@
         <v>199</v>
       </c>
       <c r="AJ10" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK10" t="s">
         <v>207</v>
@@ -35535,16 +35535,16 @@
         <v>157</v>
       </c>
       <c r="N11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O11" t="s">
-        <v>165</v>
+        <v>156</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="P11" t="s">
         <v>168</v>
       </c>
-      <c r="Q11" t="s">
-        <v>165</v>
+      <c r="Q11" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R11" t="s">
         <v>156</v>
@@ -35601,7 +35601,7 @@
         <v>198</v>
       </c>
       <c r="AJ11" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK11" t="s">
         <v>208</v>
@@ -35738,16 +35738,16 @@
         <v>156</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" t="s">
-        <v>166</v>
+      <c r="Q12" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R12" t="s">
         <v>157</v>
@@ -35804,7 +35804,7 @@
         <v>198</v>
       </c>
       <c r="AJ12" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK12" t="s">
         <v>208</v>
@@ -35941,16 +35941,16 @@
         <v>156</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P13" t="s">
         <v>168</v>
       </c>
       <c r="Q13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R13" t="s">
         <v>156</v>
@@ -36007,7 +36007,7 @@
         <v>199</v>
       </c>
       <c r="AJ13" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s">
         <v>207</v>
@@ -36144,16 +36144,16 @@
         <v>157</v>
       </c>
       <c r="N14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P14" t="s">
         <v>170</v>
       </c>
       <c r="Q14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R14" t="s">
         <v>156</v>
@@ -36210,7 +36210,7 @@
         <v>198</v>
       </c>
       <c r="AJ14" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK14" t="s">
         <v>207</v>
@@ -36347,16 +36347,16 @@
         <v>156</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P15" t="s">
         <v>168</v>
       </c>
-      <c r="Q15" t="s">
-        <v>167</v>
+      <c r="Q15" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R15" t="s">
         <v>156</v>
@@ -36413,7 +36413,7 @@
         <v>198</v>
       </c>
       <c r="AJ15" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK15" t="s">
         <v>207</v>
@@ -36550,16 +36550,16 @@
         <v>156</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" t="s">
-        <v>165</v>
+      <c r="Q16" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R16" t="s">
         <v>156</v>
@@ -36616,7 +36616,7 @@
         <v>198</v>
       </c>
       <c r="AJ16" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK16" t="s">
         <v>208</v>
@@ -36753,16 +36753,16 @@
         <v>157</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P17" t="s">
         <v>168</v>
       </c>
-      <c r="Q17" t="s">
-        <v>166</v>
+      <c r="Q17" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R17" t="s">
         <v>157</v>
@@ -36819,7 +36819,7 @@
         <v>199</v>
       </c>
       <c r="AJ17" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="AK17" t="s">
         <v>208</v>
@@ -36956,16 +36956,16 @@
         <v>157</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P18" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" t="s">
-        <v>165</v>
+      <c r="Q18" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R18" t="s">
         <v>156</v>
@@ -37022,7 +37022,7 @@
         <v>198</v>
       </c>
       <c r="AJ18" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK18" t="s">
         <v>207</v>
@@ -37159,16 +37159,16 @@
         <v>157</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P19" t="s">
         <v>170</v>
       </c>
-      <c r="Q19" t="s">
-        <v>165</v>
+      <c r="Q19" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R19" t="s">
         <v>157</v>
@@ -37225,7 +37225,7 @@
         <v>199</v>
       </c>
       <c r="AJ19" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK19" t="s">
         <v>208</v>
@@ -37362,16 +37362,16 @@
         <v>156</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" t="s">
-        <v>166</v>
+      <c r="Q20" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R20" t="s">
         <v>157</v>
@@ -37428,7 +37428,7 @@
         <v>198</v>
       </c>
       <c r="AJ20" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK20" t="s">
         <v>208</v>
@@ -37565,16 +37565,16 @@
         <v>157</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O21" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P21" t="s">
         <v>170</v>
       </c>
-      <c r="Q21" t="s">
-        <v>166</v>
+      <c r="Q21" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R21" t="s">
         <v>156</v>
@@ -37631,7 +37631,7 @@
         <v>200</v>
       </c>
       <c r="AJ21" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="AK21" t="s">
         <v>208</v>
@@ -37768,16 +37768,16 @@
         <v>157</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P22" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" t="s">
-        <v>165</v>
+      <c r="Q22" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R22" t="s">
         <v>156</v>
@@ -37834,7 +37834,7 @@
         <v>199</v>
       </c>
       <c r="AJ22" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK22" t="s">
         <v>207</v>
@@ -37971,16 +37971,16 @@
         <v>157</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P23" t="s">
         <v>169</v>
       </c>
-      <c r="Q23" t="s">
-        <v>165</v>
+      <c r="Q23" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R23" t="s">
         <v>157</v>
@@ -38037,7 +38037,7 @@
         <v>198</v>
       </c>
       <c r="AJ23" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="AK23" t="s">
         <v>208</v>
@@ -38174,16 +38174,16 @@
         <v>156</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P24" t="s">
         <v>169</v>
       </c>
-      <c r="Q24" t="s">
-        <v>165</v>
+      <c r="Q24" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R24" t="s">
         <v>157</v>
@@ -38240,7 +38240,7 @@
         <v>198</v>
       </c>
       <c r="AJ24" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="AK24" t="s">
         <v>208</v>
@@ -38377,16 +38377,16 @@
         <v>156</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O25" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P25" t="s">
         <v>170</v>
       </c>
       <c r="Q25" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R25" t="s">
         <v>156</v>
@@ -38443,7 +38443,7 @@
         <v>198</v>
       </c>
       <c r="AJ25" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK25" t="s">
         <v>207</v>
@@ -38580,16 +38580,16 @@
         <v>157</v>
       </c>
       <c r="N26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P26" t="s">
         <v>168</v>
       </c>
-      <c r="Q26" t="s">
-        <v>165</v>
+      <c r="Q26" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R26" t="s">
         <v>156</v>
@@ -38646,7 +38646,7 @@
         <v>198</v>
       </c>
       <c r="AJ26" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="AK26" t="s">
         <v>207</v>
@@ -38783,16 +38783,16 @@
         <v>157</v>
       </c>
       <c r="N27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P27" t="s">
         <v>169</v>
       </c>
       <c r="Q27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R27" t="s">
         <v>157</v>
@@ -38849,7 +38849,7 @@
         <v>198</v>
       </c>
       <c r="AJ27" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="AK27" t="s">
         <v>208</v>
@@ -38986,16 +38986,16 @@
         <v>157</v>
       </c>
       <c r="N28" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O28" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P28" t="s">
         <v>168</v>
       </c>
       <c r="Q28" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R28" t="s">
         <v>156</v>
@@ -39052,7 +39052,7 @@
         <v>197</v>
       </c>
       <c r="AJ28" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK28" t="s">
         <v>208</v>
@@ -39189,16 +39189,16 @@
         <v>157</v>
       </c>
       <c r="N29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P29" t="s">
         <v>170</v>
       </c>
-      <c r="Q29" t="s">
-        <v>167</v>
+      <c r="Q29" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R29" t="s">
         <v>157</v>
@@ -39255,7 +39255,7 @@
         <v>198</v>
       </c>
       <c r="AJ29" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK29" t="s">
         <v>207</v>
@@ -39392,16 +39392,16 @@
         <v>157</v>
       </c>
       <c r="N30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P30" t="s">
         <v>170</v>
       </c>
       <c r="Q30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R30" t="s">
         <v>156</v>
@@ -39458,7 +39458,7 @@
         <v>198</v>
       </c>
       <c r="AJ30" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK30" t="s">
         <v>207</v>
@@ -39595,16 +39595,16 @@
         <v>157</v>
       </c>
       <c r="N31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P31" t="s">
         <v>170</v>
       </c>
       <c r="Q31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R31" t="s">
         <v>156</v>
@@ -39661,7 +39661,7 @@
         <v>198</v>
       </c>
       <c r="AJ31" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s">
         <v>207</v>
@@ -39798,16 +39798,16 @@
         <v>157</v>
       </c>
       <c r="N32" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O32" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P32" t="s">
         <v>170</v>
       </c>
-      <c r="Q32" t="s">
-        <v>167</v>
+      <c r="Q32" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="R32" t="s">
         <v>156</v>
@@ -39864,7 +39864,7 @@
         <v>198</v>
       </c>
       <c r="AJ32" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AK32" t="s">
         <v>207</v>
@@ -39970,8 +39970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF0E5C-921C-EB4F-B778-F5A9CD54BD2A}">
   <dimension ref="A1:BO40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="BI42" sqref="BI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/RiskFactors1July.xlsx
+++ b/RiskFactors1July.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48322b5fca08d482/GitHub/RiskFactorsLRGV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1034" documentId="8_{BF53BB47-CAD3-5447-80B1-DB3EADC3B8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1ABACC30-B889-0B4B-9A1F-C720EF0CF747}"/>
+  <xr:revisionPtr revIDLastSave="1145" documentId="8_{BF53BB47-CAD3-5447-80B1-DB3EADC3B8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C65215C-4049-4844-A984-765DD5F71431}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="460" windowWidth="25220" windowHeight="19660" activeTab="5" xr2:uid="{1AFF54DA-C0AD-1B48-BACA-D3A2AFC69637}"/>
+    <workbookView xWindow="13780" yWindow="460" windowWidth="25220" windowHeight="19660" activeTab="1" xr2:uid="{1AFF54DA-C0AD-1B48-BACA-D3A2AFC69637}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -1784,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BB7169-615A-3846-80CA-341EC6AF934D}">
   <dimension ref="A1:BS40"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="BJ21" sqref="BJ21"/>
     </sheetView>
   </sheetViews>
@@ -33455,8 +33455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F61359-DFAC-3947-A0D1-8BCB87E53ABD}">
   <dimension ref="A1:BO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BK34" sqref="BK34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33708,16 +33708,16 @@
         <v>156</v>
       </c>
       <c r="N2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P2" t="s">
         <v>170</v>
       </c>
       <c r="Q2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="R2" t="s">
         <v>156</v>
@@ -33774,7 +33774,7 @@
         <v>198</v>
       </c>
       <c r="AJ2" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK2" t="s">
         <v>207</v>
@@ -33911,16 +33911,16 @@
         <v>156</v>
       </c>
       <c r="N3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="O3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P3" t="s">
         <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="R3" t="s">
         <v>156</v>
@@ -33977,7 +33977,7 @@
         <v>199</v>
       </c>
       <c r="AJ3" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK3" t="s">
         <v>207</v>
@@ -34114,16 +34114,16 @@
         <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="O4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P4" t="s">
         <v>169</v>
       </c>
       <c r="Q4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="R4" t="s">
         <v>156</v>
@@ -34180,7 +34180,7 @@
         <v>199</v>
       </c>
       <c r="AJ4" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK4" t="s">
         <v>207</v>
@@ -34317,16 +34317,16 @@
         <v>156</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="O5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P5" t="s">
         <v>170</v>
       </c>
       <c r="Q5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R5" t="s">
         <v>157</v>
@@ -34383,7 +34383,7 @@
         <v>198</v>
       </c>
       <c r="AJ5" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK5" t="s">
         <v>207</v>
@@ -34520,16 +34520,16 @@
         <v>157</v>
       </c>
       <c r="N6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="O6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P6" t="s">
         <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="R6" t="s">
         <v>156</v>
@@ -34586,7 +34586,7 @@
         <v>198</v>
       </c>
       <c r="AJ6" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK6" t="s">
         <v>207</v>
@@ -34723,16 +34723,16 @@
         <v>157</v>
       </c>
       <c r="N7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="O7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P7" t="s">
         <v>170</v>
       </c>
       <c r="Q7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R7" t="s">
         <v>156</v>
@@ -34789,7 +34789,7 @@
         <v>199</v>
       </c>
       <c r="AJ7" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="AK7" t="s">
         <v>207</v>
@@ -34926,16 +34926,16 @@
         <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P8" t="s">
         <v>170</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>156</v>
+      <c r="Q8" t="s">
+        <v>165</v>
       </c>
       <c r="R8" t="s">
         <v>156</v>
@@ -34992,7 +34992,7 @@
         <v>198</v>
       </c>
       <c r="AJ8" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK8" t="s">
         <v>207</v>
@@ -35129,16 +35129,16 @@
         <v>157</v>
       </c>
       <c r="N9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
         <v>170</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>156</v>
+      <c r="Q9" t="s">
+        <v>166</v>
       </c>
       <c r="R9" t="s">
         <v>157</v>
@@ -35195,7 +35195,7 @@
         <v>197</v>
       </c>
       <c r="AJ9" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK9" t="s">
         <v>206</v>
@@ -35332,16 +35332,16 @@
         <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P10" t="s">
         <v>169</v>
       </c>
       <c r="Q10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R10" t="s">
         <v>156</v>
@@ -35398,7 +35398,7 @@
         <v>199</v>
       </c>
       <c r="AJ10" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK10" t="s">
         <v>207</v>
@@ -35535,16 +35535,16 @@
         <v>157</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="O11" t="s">
+        <v>165</v>
       </c>
       <c r="P11" t="s">
         <v>168</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>156</v>
+      <c r="Q11" t="s">
+        <v>165</v>
       </c>
       <c r="R11" t="s">
         <v>156</v>
@@ -35601,7 +35601,7 @@
         <v>198</v>
       </c>
       <c r="AJ11" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK11" t="s">
         <v>208</v>
@@ -35738,16 +35738,16 @@
         <v>156</v>
       </c>
       <c r="N12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>156</v>
+      <c r="Q12" t="s">
+        <v>166</v>
       </c>
       <c r="R12" t="s">
         <v>157</v>
@@ -35804,7 +35804,7 @@
         <v>198</v>
       </c>
       <c r="AJ12" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK12" t="s">
         <v>208</v>
@@ -35941,16 +35941,16 @@
         <v>156</v>
       </c>
       <c r="N13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s">
         <v>168</v>
       </c>
       <c r="Q13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R13" t="s">
         <v>156</v>
@@ -36007,7 +36007,7 @@
         <v>199</v>
       </c>
       <c r="AJ13" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK13" t="s">
         <v>207</v>
@@ -36144,16 +36144,16 @@
         <v>157</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P14" t="s">
         <v>170</v>
       </c>
       <c r="Q14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R14" t="s">
         <v>156</v>
@@ -36210,7 +36210,7 @@
         <v>198</v>
       </c>
       <c r="AJ14" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK14" t="s">
         <v>207</v>
@@ -36347,16 +36347,16 @@
         <v>156</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P15" t="s">
         <v>168</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>156</v>
+      <c r="Q15" t="s">
+        <v>167</v>
       </c>
       <c r="R15" t="s">
         <v>156</v>
@@ -36413,7 +36413,7 @@
         <v>198</v>
       </c>
       <c r="AJ15" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK15" t="s">
         <v>207</v>
@@ -36550,16 +36550,16 @@
         <v>156</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P16" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>156</v>
+      <c r="Q16" t="s">
+        <v>165</v>
       </c>
       <c r="R16" t="s">
         <v>156</v>
@@ -36616,7 +36616,7 @@
         <v>198</v>
       </c>
       <c r="AJ16" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK16" t="s">
         <v>208</v>
@@ -36753,16 +36753,16 @@
         <v>157</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s">
         <v>168</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>156</v>
+      <c r="Q17" t="s">
+        <v>166</v>
       </c>
       <c r="R17" t="s">
         <v>157</v>
@@ -36819,7 +36819,7 @@
         <v>199</v>
       </c>
       <c r="AJ17" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="AK17" t="s">
         <v>208</v>
@@ -36956,16 +36956,16 @@
         <v>157</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>156</v>
+      <c r="Q18" t="s">
+        <v>165</v>
       </c>
       <c r="R18" t="s">
         <v>156</v>
@@ -37022,7 +37022,7 @@
         <v>198</v>
       </c>
       <c r="AJ18" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK18" t="s">
         <v>207</v>
@@ -37159,16 +37159,16 @@
         <v>157</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s">
         <v>170</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>156</v>
+      <c r="Q19" t="s">
+        <v>165</v>
       </c>
       <c r="R19" t="s">
         <v>157</v>
@@ -37225,7 +37225,7 @@
         <v>199</v>
       </c>
       <c r="AJ19" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK19" t="s">
         <v>208</v>
@@ -37362,16 +37362,16 @@
         <v>156</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P20" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>156</v>
+      <c r="Q20" t="s">
+        <v>166</v>
       </c>
       <c r="R20" t="s">
         <v>157</v>
@@ -37428,7 +37428,7 @@
         <v>198</v>
       </c>
       <c r="AJ20" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK20" t="s">
         <v>208</v>
@@ -37565,16 +37565,16 @@
         <v>157</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P21" t="s">
         <v>170</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>156</v>
+      <c r="Q21" t="s">
+        <v>166</v>
       </c>
       <c r="R21" t="s">
         <v>156</v>
@@ -37631,7 +37631,7 @@
         <v>200</v>
       </c>
       <c r="AJ21" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="AK21" t="s">
         <v>208</v>
@@ -37768,16 +37768,16 @@
         <v>157</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O22" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P22" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>156</v>
+      <c r="Q22" t="s">
+        <v>165</v>
       </c>
       <c r="R22" t="s">
         <v>156</v>
@@ -37834,7 +37834,7 @@
         <v>199</v>
       </c>
       <c r="AJ22" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK22" t="s">
         <v>207</v>
@@ -37971,16 +37971,16 @@
         <v>157</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O23" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s">
         <v>169</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>156</v>
+      <c r="Q23" t="s">
+        <v>165</v>
       </c>
       <c r="R23" t="s">
         <v>157</v>
@@ -38037,7 +38037,7 @@
         <v>198</v>
       </c>
       <c r="AJ23" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="AK23" t="s">
         <v>208</v>
@@ -38174,16 +38174,16 @@
         <v>156</v>
       </c>
       <c r="N24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P24" t="s">
         <v>169</v>
       </c>
-      <c r="Q24" s="4" t="s">
-        <v>156</v>
+      <c r="Q24" t="s">
+        <v>165</v>
       </c>
       <c r="R24" t="s">
         <v>157</v>
@@ -38240,7 +38240,7 @@
         <v>198</v>
       </c>
       <c r="AJ24" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="AK24" t="s">
         <v>208</v>
@@ -38377,16 +38377,16 @@
         <v>156</v>
       </c>
       <c r="N25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s">
         <v>170</v>
       </c>
       <c r="Q25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R25" t="s">
         <v>156</v>
@@ -38443,7 +38443,7 @@
         <v>198</v>
       </c>
       <c r="AJ25" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK25" t="s">
         <v>207</v>
@@ -38580,16 +38580,16 @@
         <v>157</v>
       </c>
       <c r="N26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P26" t="s">
         <v>168</v>
       </c>
-      <c r="Q26" s="4" t="s">
-        <v>156</v>
+      <c r="Q26" t="s">
+        <v>165</v>
       </c>
       <c r="R26" t="s">
         <v>156</v>
@@ -38646,7 +38646,7 @@
         <v>198</v>
       </c>
       <c r="AJ26" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="AK26" t="s">
         <v>207</v>
@@ -38783,16 +38783,16 @@
         <v>157</v>
       </c>
       <c r="N27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P27" t="s">
         <v>169</v>
       </c>
       <c r="Q27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R27" t="s">
         <v>157</v>
@@ -38849,7 +38849,7 @@
         <v>198</v>
       </c>
       <c r="AJ27" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="AK27" t="s">
         <v>208</v>
@@ -38986,16 +38986,16 @@
         <v>157</v>
       </c>
       <c r="N28" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="O28" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P28" t="s">
         <v>168</v>
       </c>
       <c r="Q28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R28" t="s">
         <v>156</v>
@@ -39052,7 +39052,7 @@
         <v>197</v>
       </c>
       <c r="AJ28" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK28" t="s">
         <v>208</v>
@@ -39189,16 +39189,16 @@
         <v>157</v>
       </c>
       <c r="N29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P29" t="s">
         <v>170</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>156</v>
+      <c r="Q29" t="s">
+        <v>167</v>
       </c>
       <c r="R29" t="s">
         <v>157</v>
@@ -39255,7 +39255,7 @@
         <v>198</v>
       </c>
       <c r="AJ29" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK29" t="s">
         <v>207</v>
@@ -39392,16 +39392,16 @@
         <v>157</v>
       </c>
       <c r="N30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P30" t="s">
         <v>170</v>
       </c>
       <c r="Q30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R30" t="s">
         <v>156</v>
@@ -39458,7 +39458,7 @@
         <v>198</v>
       </c>
       <c r="AJ30" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK30" t="s">
         <v>207</v>
@@ -39595,16 +39595,16 @@
         <v>157</v>
       </c>
       <c r="N31" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O31" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P31" t="s">
         <v>170</v>
       </c>
       <c r="Q31" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R31" t="s">
         <v>156</v>
@@ -39661,7 +39661,7 @@
         <v>198</v>
       </c>
       <c r="AJ31" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AK31" t="s">
         <v>207</v>
@@ -39798,16 +39798,16 @@
         <v>157</v>
       </c>
       <c r="N32" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="O32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P32" t="s">
         <v>170</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>156</v>
+      <c r="Q32" t="s">
+        <v>167</v>
       </c>
       <c r="R32" t="s">
         <v>156</v>
@@ -39864,7 +39864,7 @@
         <v>198</v>
       </c>
       <c r="AJ32" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AK32" t="s">
         <v>207</v>
@@ -39970,8 +39970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF0E5C-921C-EB4F-B778-F5A9CD54BD2A}">
   <dimension ref="A1:BO40"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="BI42" sqref="BI42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BQ11" sqref="BQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
